--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_11-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_11-34.xlsx
@@ -74,22 +74,40 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>-1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>27:0</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>Saturday, 17 January, 2026 11:34 AM</t>
@@ -870,11 +888,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -882,7 +900,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -890,13 +908,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -908,7 +926,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -916,51 +934,129 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="K14" s="10">
-        <v>378</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="11">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c t="s" r="F15" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c t="s" r="B14" s="7">
         <v>28</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c t="s" r="I15" s="14">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c t="s" r="H14" s="8">
+        <v>25</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9">
+        <v>15</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c t="s" r="N14" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
         <v>29</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
+        <v>30</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>20</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c t="s" r="N15" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
+        <v>32</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>48</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c t="s" r="N16" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="26.25" customHeight="1">
+      <c r="K17" s="10">
+        <v>446</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="11">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c t="s" r="F18" s="12">
+        <v>34</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c t="s" r="I18" s="14">
+        <v>35</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="50">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -998,10 +1094,19 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:N18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
